--- a/paperdata/0.0032sun.xlsx
+++ b/paperdata/0.0032sun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\UROP\cir_simu\paperdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F05F0C4-7BE9-4430-B89A-61A06DF43DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56C5C06-7A8D-4A2E-98A2-F01B9AEA3A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="17910" xr2:uid="{9071B0E1-F3BE-4D36-9472-C50AE0C545B7}"/>
+    <workbookView xWindow="1050" yWindow="3090" windowWidth="28815" windowHeight="17910" xr2:uid="{9071B0E1-F3BE-4D36-9472-C50AE0C545B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,10 +451,10 @@
         <v>7.7061799999999995E-8</v>
       </c>
       <c r="E2">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F2">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -471,10 +471,10 @@
         <v>6.9720700000000003E-8</v>
       </c>
       <c r="E3">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F3">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -491,10 +491,10 @@
         <v>6.5529700000000002E-8</v>
       </c>
       <c r="E4">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F4">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -511,10 +511,10 @@
         <v>6.4966599999999994E-8</v>
       </c>
       <c r="E5">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F5">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -531,10 +531,10 @@
         <v>6.9828600000000001E-8</v>
       </c>
       <c r="E6">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F6">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -551,10 +551,10 @@
         <v>6.5089900000000004E-8</v>
       </c>
       <c r="E7">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F7">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -571,10 +571,10 @@
         <v>7.3661399999999995E-8</v>
       </c>
       <c r="E8">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F8">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -591,10 +591,10 @@
         <v>6.43372E-8</v>
       </c>
       <c r="E9">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F9">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -611,10 +611,10 @@
         <v>6.4531499999999998E-8</v>
       </c>
       <c r="E10">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F10">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -631,10 +631,10 @@
         <v>6.5772000000000002E-8</v>
       </c>
       <c r="E11">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F11">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -651,10 +651,10 @@
         <v>6.5416400000000003E-8</v>
       </c>
       <c r="E12">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F12">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -671,10 +671,10 @@
         <v>6.6035100000000001E-8</v>
       </c>
       <c r="E13">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F13">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -691,10 +691,10 @@
         <v>8.0191299999999996E-8</v>
       </c>
       <c r="E14">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F14">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -711,10 +711,10 @@
         <v>7.9543300000000003E-8</v>
       </c>
       <c r="E15">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F15">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -731,10 +731,10 @@
         <v>6.9698000000000006E-8</v>
       </c>
       <c r="E16">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F16">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -751,10 +751,10 @@
         <v>7.1425999999999994E-8</v>
       </c>
       <c r="E17">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F17">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -771,10 +771,10 @@
         <v>7.2513699999999994E-8</v>
       </c>
       <c r="E18">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F18">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -791,10 +791,10 @@
         <v>7.5790599999999998E-8</v>
       </c>
       <c r="E19">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F19">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -811,10 +811,10 @@
         <v>8.1978999999999996E-8</v>
       </c>
       <c r="E20">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F20">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -831,10 +831,10 @@
         <v>9.7146800000000005E-8</v>
       </c>
       <c r="E21">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F21">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -851,10 +851,10 @@
         <v>1.2980399999999999E-7</v>
       </c>
       <c r="E22">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F22">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -871,10 +871,10 @@
         <v>1.7707399999999999E-7</v>
       </c>
       <c r="E23">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F23">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -891,10 +891,10 @@
         <v>3.3388599999999998E-7</v>
       </c>
       <c r="E24">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F24">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -911,10 +911,10 @@
         <v>6.7130899999999997E-7</v>
       </c>
       <c r="E25">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F25">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -931,10 +931,10 @@
         <v>1.46063E-6</v>
       </c>
       <c r="E26">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F26">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -951,10 +951,10 @@
         <v>3.3005899999999999E-6</v>
       </c>
       <c r="E27">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F27">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -971,10 +971,10 @@
         <v>7.1966900000000002E-6</v>
       </c>
       <c r="E28">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F28">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -991,10 +991,10 @@
         <v>1.51149E-5</v>
       </c>
       <c r="E29">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F29">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1011,10 +1011,10 @@
         <v>3.1241999999999997E-5</v>
       </c>
       <c r="E30">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F30">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1031,10 +1031,10 @@
         <v>6.0724299999999997E-5</v>
       </c>
       <c r="E31">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F31">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>1.10456E-4</v>
       </c>
       <c r="E32">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F32">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1071,10 +1071,10 @@
         <v>1.8835E-4</v>
       </c>
       <c r="E33">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F33">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1091,10 +1091,10 @@
         <v>2.9808100000000001E-4</v>
       </c>
       <c r="E34">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F34">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1111,10 +1111,10 @@
         <v>4.5333500000000002E-4</v>
       </c>
       <c r="E35">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F35">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1131,10 +1131,10 @@
         <v>6.3734100000000004E-4</v>
       </c>
       <c r="E36">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F36">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1151,10 +1151,10 @@
         <v>8.5640599999999999E-4</v>
       </c>
       <c r="E37">
-        <v>0.86399999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F37">
-        <v>7.0400000000000004E-6</v>
+        <v>7.0400000000000004E-5</v>
       </c>
     </row>
   </sheetData>
